--- a/src/test/resources/yo/dbunitcli/application/multidiff/expect/COMPARE_RESULT.xlsx
+++ b/src/test/resources/yo/dbunitcli/application/multidiff/expect/COMPARE_RESULT.xlsx
@@ -245,11 +245,7 @@
           <t>ChangeColumn</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
+      <c r="F5"/>
       <c r="G5" t="inlineStr">
         <is>
           <t>4</t>
@@ -487,11 +483,7 @@
           <t>COLUMNS_MODIFY</t>
         </is>
       </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
+      <c r="E11"/>
       <c r="F11" t="inlineStr">
         <is>
           <t>value1</t>
